--- a/.storybook/public/audits/DialogBox.xlsx
+++ b/.storybook/public/audits/DialogBox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/julien_roche_fabernovel_ey_com/Documents/Documents/CNAM Audits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidfyon/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15F17A6-EB64-4010-98B9-4CFDE7E586A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166EDD35-7435-854D-96B4-08B69D4D0E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="760" windowWidth="25600" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4640" yWindow="760" windowWidth="44260" windowHeight="25980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogBox" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="284">
   <si>
     <t>Composant : DialogBox</t>
   </si>
@@ -934,6 +934,12 @@
 Les interactions clavier sont :
   - Tab / Shift+Tab : Déplace le focus vers l'élément interactif suivant (ou précédent si Shift+Tab). Boucle uniquement sur les enfants de la boîte de dialogue
   - Echap : Ferme la boîte de dialogue</t>
+  </si>
+  <si>
+    <t>Correction post audit V1 - (voir - https://github.com/assurance-maladie-digital/design-system/issues/853)</t>
+  </si>
+  <si>
+    <t>0.0.16-alpha</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1094,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1233,12 +1239,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1276,30 +1297,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1309,18 +1323,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1346,16 +1348,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1817,152 +1846,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="143.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.1" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6" ht="32" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.95">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" ht="19">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.95">
-      <c r="A3" s="23" t="s">
+      <c r="E2" s="43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19">
+      <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="8">
         <v>45849</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.95">
-      <c r="A4" s="24" t="s">
+      <c r="E3" s="46">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19">
+      <c r="A4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="E4" s="44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" customHeight="1">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="9">
         <f xml:space="preserve"> COUNTIF($D$14:$D$119,"Conforme")</f>
         <v>12</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.95">
-      <c r="A6" s="23" t="s">
+      <c r="E5" s="44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="9">
         <f xml:space="preserve"> COUNTIF($D$14:$D$119,"Non conforme")</f>
         <v>9</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.95">
-      <c r="A7" s="23" t="s">
+      <c r="E6" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19">
+      <c r="A7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="9">
         <f xml:space="preserve"> COUNTIF($D$14:$D$119,"Non applicable")</f>
         <v>85</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.95">
-      <c r="A8" s="23" t="s">
+      <c r="E7" s="9">
+        <f xml:space="preserve"> COUNTIF($D$14:$D$119,"Non applicable")</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19">
+      <c r="A8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="9">
         <f xml:space="preserve"> COUNTIF($D$14:$D$119,"Dérogé")</f>
         <v>0</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.95">
-      <c r="A9" s="23" t="s">
+      <c r="E8" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19">
+      <c r="A9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="9">
         <f xml:space="preserve"> COUNTIF($D$14:$D$119,"Non testé")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="E9" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19" customHeight="1">
+      <c r="A10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="14">
         <f>IF(SUM(D5:D6)&gt;0,D5/SUM(D5:D6),"")</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="E10" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19" customHeight="1">
+      <c r="A11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="14">
         <f>IF(SUM(D5:D6)&gt;0,1-ROUND(D10,2),"")</f>
         <v>0.43000000000000005</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="18.95">
+    <row r="13" spans="1:6" ht="19">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1982,8 +2032,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="33.950000000000003">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:6" ht="34">
+      <c r="A14" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1998,8 +2048,8 @@
       <c r="E14" s="11"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:6" ht="61.5">
-      <c r="A15" s="32"/>
+    <row r="15" spans="1:6" ht="68">
+      <c r="A15" s="23"/>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2012,12 +2062,12 @@
       <c r="E15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33.950000000000003">
-      <c r="A16" s="32"/>
+    <row r="16" spans="1:6" ht="34">
+      <c r="A16" s="23"/>
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2031,7 +2081,7 @@
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="51">
-      <c r="A17" s="32"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2044,8 +2094,8 @@
       <c r="E17" s="11"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="33.950000000000003">
-      <c r="A18" s="32"/>
+    <row r="18" spans="1:6" ht="34">
+      <c r="A18" s="23"/>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
@@ -2058,8 +2108,8 @@
       <c r="E18" s="11"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" ht="33.950000000000003">
-      <c r="A19" s="32"/>
+    <row r="19" spans="1:6" ht="34">
+      <c r="A19" s="23"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2072,8 +2122,8 @@
       <c r="E19" s="11"/>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:6" ht="33.950000000000003">
-      <c r="A20" s="32"/>
+    <row r="20" spans="1:6" ht="34">
+      <c r="A20" s="23"/>
       <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2087,7 +2137,7 @@
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="51">
-      <c r="A21" s="32"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2100,8 +2150,8 @@
       <c r="E21" s="11"/>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:6" ht="33.950000000000003">
-      <c r="A22" s="33"/>
+    <row r="22" spans="1:6" ht="34">
+      <c r="A22" s="24"/>
       <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
@@ -2114,8 +2164,8 @@
       <c r="E22" s="11"/>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6" ht="18.95">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:6" ht="19">
+      <c r="A23" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2130,8 +2180,8 @@
       <c r="E23" s="11"/>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="1:6" ht="33.950000000000003">
-      <c r="A24" s="33"/>
+    <row r="24" spans="1:6" ht="34">
+      <c r="A24" s="24"/>
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2144,8 +2194,8 @@
       <c r="E24" s="11"/>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" spans="1:6" ht="33.950000000000003">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:6" ht="34">
+      <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2160,8 +2210,8 @@
       <c r="E25" s="11"/>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:6" ht="186.95">
-      <c r="A26" s="32"/>
+    <row r="26" spans="1:6" ht="187">
+      <c r="A26" s="23"/>
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2176,8 +2226,8 @@
       </c>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:6" ht="200.25">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:6" ht="221">
+      <c r="A27" s="24"/>
       <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
@@ -2190,12 +2240,12 @@
       <c r="E27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="33.950000000000003">
-      <c r="A28" s="34" t="s">
+    <row r="28" spans="1:6" ht="34">
+      <c r="A28" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2211,7 +2261,7 @@
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" ht="51">
-      <c r="A29" s="32"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2224,8 +2274,8 @@
       <c r="E29" s="11"/>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="1:6" ht="33.950000000000003">
-      <c r="A30" s="32"/>
+    <row r="30" spans="1:6" ht="34">
+      <c r="A30" s="23"/>
       <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
@@ -2238,8 +2288,8 @@
       <c r="E30" s="11"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="1:6" ht="33.950000000000003">
-      <c r="A31" s="32"/>
+    <row r="31" spans="1:6" ht="34">
+      <c r="A31" s="23"/>
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
@@ -2252,8 +2302,8 @@
       <c r="E31" s="11"/>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:6" ht="33.950000000000003">
-      <c r="A32" s="32"/>
+    <row r="32" spans="1:6" ht="34">
+      <c r="A32" s="23"/>
       <c r="B32" s="2" t="s">
         <v>67</v>
       </c>
@@ -2266,8 +2316,8 @@
       <c r="E32" s="11"/>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" spans="1:6" ht="33.950000000000003">
-      <c r="A33" s="32"/>
+    <row r="33" spans="1:6" ht="34">
+      <c r="A33" s="23"/>
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
@@ -2280,8 +2330,8 @@
       <c r="E33" s="11"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:6" ht="33.950000000000003">
-      <c r="A34" s="32"/>
+    <row r="34" spans="1:6" ht="34">
+      <c r="A34" s="23"/>
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
@@ -2294,8 +2344,8 @@
       <c r="E34" s="11"/>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="1:6" ht="33.950000000000003">
-      <c r="A35" s="32"/>
+    <row r="35" spans="1:6" ht="34">
+      <c r="A35" s="23"/>
       <c r="B35" s="2" t="s">
         <v>73</v>
       </c>
@@ -2308,8 +2358,8 @@
       <c r="E35" s="11"/>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" ht="33.950000000000003">
-      <c r="A36" s="32"/>
+    <row r="36" spans="1:6" ht="34">
+      <c r="A36" s="23"/>
       <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
@@ -2322,8 +2372,8 @@
       <c r="E36" s="11"/>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:6" ht="33.950000000000003">
-      <c r="A37" s="32"/>
+    <row r="37" spans="1:6" ht="34">
+      <c r="A37" s="23"/>
       <c r="B37" s="2" t="s">
         <v>77</v>
       </c>
@@ -2336,8 +2386,8 @@
       <c r="E37" s="11"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:6" ht="33.950000000000003">
-      <c r="A38" s="32"/>
+    <row r="38" spans="1:6" ht="34">
+      <c r="A38" s="23"/>
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
@@ -2350,8 +2400,8 @@
       <c r="E38" s="11"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" ht="33.950000000000003">
-      <c r="A39" s="32"/>
+    <row r="39" spans="1:6" ht="34">
+      <c r="A39" s="23"/>
       <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
@@ -2364,8 +2414,8 @@
       <c r="E39" s="11"/>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="1:6" ht="33.950000000000003">
-      <c r="A40" s="33"/>
+    <row r="40" spans="1:6" ht="34">
+      <c r="A40" s="24"/>
       <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
@@ -2378,8 +2428,8 @@
       <c r="E40" s="11"/>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="1:6" ht="18.95">
-      <c r="A41" s="34" t="s">
+    <row r="41" spans="1:6" ht="19">
+      <c r="A41" s="22" t="s">
         <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2394,8 +2444,8 @@
       <c r="E41" s="11"/>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="1:6" ht="33.950000000000003">
-      <c r="A42" s="32"/>
+    <row r="42" spans="1:6" ht="34">
+      <c r="A42" s="23"/>
       <c r="B42" s="2" t="s">
         <v>88</v>
       </c>
@@ -2408,8 +2458,8 @@
       <c r="E42" s="11"/>
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="1:6" ht="33.950000000000003">
-      <c r="A43" s="32"/>
+    <row r="43" spans="1:6" ht="34">
+      <c r="A43" s="23"/>
       <c r="B43" s="2" t="s">
         <v>90</v>
       </c>
@@ -2422,8 +2472,8 @@
       <c r="E43" s="11"/>
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="1:6" ht="33.950000000000003">
-      <c r="A44" s="32"/>
+    <row r="44" spans="1:6" ht="34">
+      <c r="A44" s="23"/>
       <c r="B44" s="2" t="s">
         <v>92</v>
       </c>
@@ -2436,8 +2486,8 @@
       <c r="E44" s="11"/>
       <c r="F44" s="17"/>
     </row>
-    <row r="45" spans="1:6" ht="33.950000000000003">
-      <c r="A45" s="32"/>
+    <row r="45" spans="1:6" ht="34">
+      <c r="A45" s="23"/>
       <c r="B45" s="2" t="s">
         <v>94</v>
       </c>
@@ -2450,8 +2500,8 @@
       <c r="E45" s="11"/>
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:6" ht="33.950000000000003">
-      <c r="A46" s="32"/>
+    <row r="46" spans="1:6" ht="34">
+      <c r="A46" s="23"/>
       <c r="B46" s="2" t="s">
         <v>96</v>
       </c>
@@ -2465,7 +2515,7 @@
       <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" ht="51">
-      <c r="A47" s="32"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="2" t="s">
         <v>98</v>
       </c>
@@ -2478,8 +2528,8 @@
       <c r="E47" s="11"/>
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="1:6" ht="33.950000000000003">
-      <c r="A48" s="33"/>
+    <row r="48" spans="1:6" ht="34">
+      <c r="A48" s="24"/>
       <c r="B48" s="2" t="s">
         <v>100</v>
       </c>
@@ -2492,8 +2542,8 @@
       <c r="E48" s="11"/>
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="1:6" ht="18.95">
-      <c r="A49" s="34" t="s">
+    <row r="49" spans="1:6" ht="19">
+      <c r="A49" s="22" t="s">
         <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2508,8 +2558,8 @@
       <c r="E49" s="11"/>
       <c r="F49" s="17"/>
     </row>
-    <row r="50" spans="1:6" ht="18.95">
-      <c r="A50" s="33"/>
+    <row r="50" spans="1:6" ht="19">
+      <c r="A50" s="24"/>
       <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
@@ -2522,8 +2572,8 @@
       <c r="E50" s="11"/>
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="1:6" ht="138.75">
-      <c r="A51" s="34" t="s">
+    <row r="51" spans="1:6" ht="153">
+      <c r="A51" s="22" t="s">
         <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2538,12 +2588,12 @@
       <c r="E51" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="F51" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="33.950000000000003">
-      <c r="A52" s="32"/>
+    <row r="52" spans="1:6" ht="34">
+      <c r="A52" s="23"/>
       <c r="B52" s="2" t="s">
         <v>112</v>
       </c>
@@ -2556,8 +2606,8 @@
       <c r="E52" s="11"/>
       <c r="F52" s="17"/>
     </row>
-    <row r="53" spans="1:6" ht="123">
-      <c r="A53" s="32"/>
+    <row r="53" spans="1:6" ht="136">
+      <c r="A53" s="23"/>
       <c r="B53" s="2" t="s">
         <v>114</v>
       </c>
@@ -2570,12 +2620,12 @@
       <c r="E53" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="44" t="s">
+      <c r="F53" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="33.950000000000003">
-      <c r="A54" s="32"/>
+    <row r="54" spans="1:6" ht="34">
+      <c r="A54" s="23"/>
       <c r="B54" s="2" t="s">
         <v>117</v>
       </c>
@@ -2588,8 +2638,8 @@
       <c r="E54" s="11"/>
       <c r="F54" s="17"/>
     </row>
-    <row r="55" spans="1:6" ht="33.950000000000003">
-      <c r="A55" s="33"/>
+    <row r="55" spans="1:6" ht="34">
+      <c r="A55" s="24"/>
       <c r="B55" s="2" t="s">
         <v>119</v>
       </c>
@@ -2602,8 +2652,8 @@
       <c r="E55" s="11"/>
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="1:6" ht="18.95">
-      <c r="A56" s="34" t="s">
+    <row r="56" spans="1:6" ht="19">
+      <c r="A56" s="22" t="s">
         <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2618,8 +2668,8 @@
       <c r="E56" s="11"/>
       <c r="F56" s="17"/>
     </row>
-    <row r="57" spans="1:6" ht="46.5">
-      <c r="A57" s="32"/>
+    <row r="57" spans="1:6" ht="51">
+      <c r="A57" s="23"/>
       <c r="B57" s="2" t="s">
         <v>124</v>
       </c>
@@ -2632,12 +2682,12 @@
       <c r="E57" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F57" s="43" t="s">
+      <c r="F57" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="18.95">
-      <c r="A58" s="32"/>
+    <row r="58" spans="1:6" ht="19">
+      <c r="A58" s="23"/>
       <c r="B58" s="2" t="s">
         <v>128</v>
       </c>
@@ -2650,8 +2700,8 @@
       <c r="E58" s="11"/>
       <c r="F58" s="17"/>
     </row>
-    <row r="59" spans="1:6" ht="33.950000000000003">
-      <c r="A59" s="32"/>
+    <row r="59" spans="1:6" ht="34">
+      <c r="A59" s="23"/>
       <c r="B59" s="2" t="s">
         <v>130</v>
       </c>
@@ -2664,8 +2714,8 @@
       <c r="E59" s="11"/>
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="1:6" ht="18.95">
-      <c r="A60" s="32"/>
+    <row r="60" spans="1:6" ht="19">
+      <c r="A60" s="23"/>
       <c r="B60" s="2" t="s">
         <v>132</v>
       </c>
@@ -2678,8 +2728,8 @@
       <c r="E60" s="11"/>
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="1:6" ht="18.95">
-      <c r="A61" s="32"/>
+    <row r="61" spans="1:6" ht="19">
+      <c r="A61" s="23"/>
       <c r="B61" s="2" t="s">
         <v>134</v>
       </c>
@@ -2692,8 +2742,8 @@
       <c r="E61" s="11"/>
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="1:6" ht="33.950000000000003">
-      <c r="A62" s="32"/>
+    <row r="62" spans="1:6" ht="34">
+      <c r="A62" s="23"/>
       <c r="B62" s="2" t="s">
         <v>136</v>
       </c>
@@ -2706,8 +2756,8 @@
       <c r="E62" s="11"/>
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="1:6" ht="33.950000000000003">
-      <c r="A63" s="32"/>
+    <row r="63" spans="1:6" ht="34">
+      <c r="A63" s="23"/>
       <c r="B63" s="2" t="s">
         <v>138</v>
       </c>
@@ -2720,8 +2770,8 @@
       <c r="E63" s="11"/>
       <c r="F63" s="17"/>
     </row>
-    <row r="64" spans="1:6" ht="33.950000000000003">
-      <c r="A64" s="32"/>
+    <row r="64" spans="1:6" ht="34">
+      <c r="A64" s="23"/>
       <c r="B64" s="2" t="s">
         <v>140</v>
       </c>
@@ -2734,8 +2784,8 @@
       <c r="E64" s="11"/>
       <c r="F64" s="17"/>
     </row>
-    <row r="65" spans="1:6" ht="33.950000000000003">
-      <c r="A65" s="33"/>
+    <row r="65" spans="1:6" ht="34">
+      <c r="A65" s="24"/>
       <c r="B65" s="2" t="s">
         <v>142</v>
       </c>
@@ -2748,8 +2798,8 @@
       <c r="E65" s="11"/>
       <c r="F65" s="17"/>
     </row>
-    <row r="66" spans="1:6" ht="32.25">
-      <c r="A66" s="34" t="s">
+    <row r="66" spans="1:6" ht="34">
+      <c r="A66" s="22" t="s">
         <v>144</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2764,12 +2814,12 @@
       <c r="E66" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F66" s="43" t="s">
+      <c r="F66" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="33.950000000000003">
-      <c r="A67" s="32"/>
+    <row r="67" spans="1:6" ht="34">
+      <c r="A67" s="23"/>
       <c r="B67" s="2" t="s">
         <v>149</v>
       </c>
@@ -2782,8 +2832,8 @@
       <c r="E67" s="11"/>
       <c r="F67" s="17"/>
     </row>
-    <row r="68" spans="1:6" ht="18.95">
-      <c r="A68" s="32"/>
+    <row r="68" spans="1:6" ht="19">
+      <c r="A68" s="23"/>
       <c r="B68" s="2" t="s">
         <v>151</v>
       </c>
@@ -2796,8 +2846,8 @@
       <c r="E68" s="11"/>
       <c r="F68" s="17"/>
     </row>
-    <row r="69" spans="1:6" ht="33.950000000000003">
-      <c r="A69" s="33"/>
+    <row r="69" spans="1:6" ht="34">
+      <c r="A69" s="24"/>
       <c r="B69" s="2" t="s">
         <v>153</v>
       </c>
@@ -2810,8 +2860,8 @@
       <c r="E69" s="11"/>
       <c r="F69" s="17"/>
     </row>
-    <row r="70" spans="1:6" ht="68.099999999999994">
-      <c r="A70" s="34" t="s">
+    <row r="70" spans="1:6" ht="68">
+      <c r="A70" s="22" t="s">
         <v>155</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2828,8 +2878,8 @@
       </c>
       <c r="F70" s="17"/>
     </row>
-    <row r="71" spans="1:6" ht="33.950000000000003">
-      <c r="A71" s="32"/>
+    <row r="71" spans="1:6" ht="34">
+      <c r="A71" s="23"/>
       <c r="B71" s="2" t="s">
         <v>159</v>
       </c>
@@ -2844,8 +2894,8 @@
       </c>
       <c r="F71" s="17"/>
     </row>
-    <row r="72" spans="1:6" ht="33.950000000000003">
-      <c r="A72" s="32"/>
+    <row r="72" spans="1:6" ht="34">
+      <c r="A72" s="23"/>
       <c r="B72" s="2" t="s">
         <v>162</v>
       </c>
@@ -2861,7 +2911,7 @@
       <c r="F72" s="17"/>
     </row>
     <row r="73" spans="1:6" ht="51">
-      <c r="A73" s="32"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="2" t="s">
         <v>165</v>
       </c>
@@ -2876,8 +2926,8 @@
       </c>
       <c r="F73" s="17"/>
     </row>
-    <row r="74" spans="1:6" ht="33.950000000000003">
-      <c r="A74" s="32"/>
+    <row r="74" spans="1:6" ht="34">
+      <c r="A74" s="23"/>
       <c r="B74" s="2" t="s">
         <v>168</v>
       </c>
@@ -2887,13 +2937,13 @@
       <c r="D74" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="19" t="s">
         <v>170</v>
       </c>
       <c r="F74" s="17"/>
     </row>
-    <row r="75" spans="1:6" ht="33.950000000000003">
-      <c r="A75" s="32"/>
+    <row r="75" spans="1:6" ht="34">
+      <c r="A75" s="23"/>
       <c r="B75" s="2" t="s">
         <v>171</v>
       </c>
@@ -2906,8 +2956,8 @@
       <c r="E75" s="11"/>
       <c r="F75" s="17"/>
     </row>
-    <row r="76" spans="1:6" ht="32.25">
-      <c r="A76" s="32"/>
+    <row r="76" spans="1:6" ht="34">
+      <c r="A76" s="23"/>
       <c r="B76" s="2" t="s">
         <v>173</v>
       </c>
@@ -2920,12 +2970,12 @@
       <c r="E76" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F76" s="44" t="s">
+      <c r="F76" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="33.950000000000003">
-      <c r="A77" s="32"/>
+    <row r="77" spans="1:6" ht="34">
+      <c r="A77" s="23"/>
       <c r="B77" s="2" t="s">
         <v>177</v>
       </c>
@@ -2939,7 +2989,7 @@
       <c r="F77" s="17"/>
     </row>
     <row r="78" spans="1:6" ht="51">
-      <c r="A78" s="32"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="2" t="s">
         <v>179</v>
       </c>
@@ -2955,7 +3005,7 @@
       <c r="F78" s="17"/>
     </row>
     <row r="79" spans="1:6" ht="51">
-      <c r="A79" s="32"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="2" t="s">
         <v>182</v>
       </c>
@@ -2970,8 +3020,8 @@
       </c>
       <c r="F79" s="17"/>
     </row>
-    <row r="80" spans="1:6" ht="84.95">
-      <c r="A80" s="32"/>
+    <row r="80" spans="1:6" ht="85">
+      <c r="A80" s="23"/>
       <c r="B80" s="2" t="s">
         <v>185</v>
       </c>
@@ -2986,8 +3036,8 @@
       </c>
       <c r="F80" s="17"/>
     </row>
-    <row r="81" spans="1:6" ht="138.75">
-      <c r="A81" s="32"/>
+    <row r="81" spans="1:6" ht="170">
+      <c r="A81" s="23"/>
       <c r="B81" s="2" t="s">
         <v>188</v>
       </c>
@@ -3000,12 +3050,12 @@
       <c r="E81" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F81" s="43" t="s">
+      <c r="F81" s="20" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="68.099999999999994">
-      <c r="A82" s="32"/>
+    <row r="82" spans="1:6" ht="68">
+      <c r="A82" s="23"/>
       <c r="B82" s="2" t="s">
         <v>192</v>
       </c>
@@ -3021,7 +3071,7 @@
       <c r="F82" s="17"/>
     </row>
     <row r="83" spans="1:6" ht="51">
-      <c r="A83" s="33"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="2" t="s">
         <v>195</v>
       </c>
@@ -3034,8 +3084,8 @@
       <c r="E83" s="11"/>
       <c r="F83" s="17"/>
     </row>
-    <row r="84" spans="1:6" ht="18.95">
-      <c r="A84" s="34" t="s">
+    <row r="84" spans="1:6" ht="19">
+      <c r="A84" s="22" t="s">
         <v>197</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3050,8 +3100,8 @@
       <c r="E84" s="11"/>
       <c r="F84" s="17"/>
     </row>
-    <row r="85" spans="1:6" ht="33.950000000000003">
-      <c r="A85" s="32"/>
+    <row r="85" spans="1:6" ht="34">
+      <c r="A85" s="23"/>
       <c r="B85" s="2" t="s">
         <v>200</v>
       </c>
@@ -3065,7 +3115,7 @@
       <c r="F85" s="17"/>
     </row>
     <row r="86" spans="1:6" ht="51">
-      <c r="A86" s="32"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="2" t="s">
         <v>202</v>
       </c>
@@ -3078,8 +3128,8 @@
       <c r="E86" s="11"/>
       <c r="F86" s="17"/>
     </row>
-    <row r="87" spans="1:6" ht="33.950000000000003">
-      <c r="A87" s="32"/>
+    <row r="87" spans="1:6" ht="34">
+      <c r="A87" s="23"/>
       <c r="B87" s="2" t="s">
         <v>204</v>
       </c>
@@ -3092,8 +3142,8 @@
       <c r="E87" s="11"/>
       <c r="F87" s="17"/>
     </row>
-    <row r="88" spans="1:6" ht="33.950000000000003">
-      <c r="A88" s="32"/>
+    <row r="88" spans="1:6" ht="34">
+      <c r="A88" s="23"/>
       <c r="B88" s="2" t="s">
         <v>206</v>
       </c>
@@ -3106,8 +3156,8 @@
       <c r="E88" s="11"/>
       <c r="F88" s="17"/>
     </row>
-    <row r="89" spans="1:6" ht="33.950000000000003">
-      <c r="A89" s="32"/>
+    <row r="89" spans="1:6" ht="34">
+      <c r="A89" s="23"/>
       <c r="B89" s="2" t="s">
         <v>208</v>
       </c>
@@ -3120,8 +3170,8 @@
       <c r="E89" s="11"/>
       <c r="F89" s="17"/>
     </row>
-    <row r="90" spans="1:6" ht="33.950000000000003">
-      <c r="A90" s="32"/>
+    <row r="90" spans="1:6" ht="34">
+      <c r="A90" s="23"/>
       <c r="B90" s="2" t="s">
         <v>210</v>
       </c>
@@ -3134,8 +3184,8 @@
       <c r="E90" s="11"/>
       <c r="F90" s="17"/>
     </row>
-    <row r="91" spans="1:6" ht="33.950000000000003">
-      <c r="A91" s="32"/>
+    <row r="91" spans="1:6" ht="34">
+      <c r="A91" s="23"/>
       <c r="B91" s="2" t="s">
         <v>212</v>
       </c>
@@ -3148,8 +3198,8 @@
       <c r="E91" s="11"/>
       <c r="F91" s="17"/>
     </row>
-    <row r="92" spans="1:6" ht="33.950000000000003">
-      <c r="A92" s="32"/>
+    <row r="92" spans="1:6" ht="34">
+      <c r="A92" s="23"/>
       <c r="B92" s="2" t="s">
         <v>214</v>
       </c>
@@ -3162,8 +3212,8 @@
       <c r="E92" s="11"/>
       <c r="F92" s="17"/>
     </row>
-    <row r="93" spans="1:6" ht="33.950000000000003">
-      <c r="A93" s="32"/>
+    <row r="93" spans="1:6" ht="34">
+      <c r="A93" s="23"/>
       <c r="B93" s="2" t="s">
         <v>216</v>
       </c>
@@ -3177,7 +3227,7 @@
       <c r="F93" s="17"/>
     </row>
     <row r="94" spans="1:6" ht="51">
-      <c r="A94" s="32"/>
+      <c r="A94" s="23"/>
       <c r="B94" s="2" t="s">
         <v>218</v>
       </c>
@@ -3190,8 +3240,8 @@
       <c r="E94" s="11"/>
       <c r="F94" s="17"/>
     </row>
-    <row r="95" spans="1:6" ht="84.95">
-      <c r="A95" s="32"/>
+    <row r="95" spans="1:6" ht="85">
+      <c r="A95" s="23"/>
       <c r="B95" s="2" t="s">
         <v>220</v>
       </c>
@@ -3205,7 +3255,7 @@
       <c r="F95" s="17"/>
     </row>
     <row r="96" spans="1:6" ht="51">
-      <c r="A96" s="33"/>
+      <c r="A96" s="24"/>
       <c r="B96" s="2" t="s">
         <v>222</v>
       </c>
@@ -3218,8 +3268,8 @@
       <c r="E96" s="11"/>
       <c r="F96" s="17"/>
     </row>
-    <row r="97" spans="1:6" ht="33.950000000000003">
-      <c r="A97" s="34" t="s">
+    <row r="97" spans="1:6" ht="34">
+      <c r="A97" s="22" t="s">
         <v>224</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3234,8 +3284,8 @@
       <c r="E97" s="11"/>
       <c r="F97" s="17"/>
     </row>
-    <row r="98" spans="1:6" ht="33.950000000000003">
-      <c r="A98" s="32"/>
+    <row r="98" spans="1:6" ht="34">
+      <c r="A98" s="23"/>
       <c r="B98" s="2" t="s">
         <v>227</v>
       </c>
@@ -3248,8 +3298,8 @@
       <c r="E98" s="11"/>
       <c r="F98" s="17"/>
     </row>
-    <row r="99" spans="1:6" ht="18.95">
-      <c r="A99" s="32"/>
+    <row r="99" spans="1:6" ht="19">
+      <c r="A99" s="23"/>
       <c r="B99" s="2" t="s">
         <v>229</v>
       </c>
@@ -3262,8 +3312,8 @@
       <c r="E99" s="11"/>
       <c r="F99" s="17"/>
     </row>
-    <row r="100" spans="1:6" ht="33.950000000000003">
-      <c r="A100" s="32"/>
+    <row r="100" spans="1:6" ht="34">
+      <c r="A100" s="23"/>
       <c r="B100" s="2" t="s">
         <v>231</v>
       </c>
@@ -3276,8 +3326,8 @@
       <c r="E100" s="11"/>
       <c r="F100" s="17"/>
     </row>
-    <row r="101" spans="1:6" ht="33.950000000000003">
-      <c r="A101" s="32"/>
+    <row r="101" spans="1:6" ht="34">
+      <c r="A101" s="23"/>
       <c r="B101" s="2" t="s">
         <v>233</v>
       </c>
@@ -3290,8 +3340,8 @@
       <c r="E101" s="11"/>
       <c r="F101" s="17"/>
     </row>
-    <row r="102" spans="1:6" ht="68.099999999999994">
-      <c r="A102" s="32"/>
+    <row r="102" spans="1:6" ht="68">
+      <c r="A102" s="23"/>
       <c r="B102" s="2" t="s">
         <v>235</v>
       </c>
@@ -3304,8 +3354,8 @@
       <c r="E102" s="11"/>
       <c r="F102" s="17"/>
     </row>
-    <row r="103" spans="1:6" ht="33.950000000000003">
-      <c r="A103" s="32"/>
+    <row r="103" spans="1:6" ht="34">
+      <c r="A103" s="23"/>
       <c r="B103" s="2" t="s">
         <v>237</v>
       </c>
@@ -3318,8 +3368,8 @@
       <c r="E103" s="11"/>
       <c r="F103" s="17"/>
     </row>
-    <row r="104" spans="1:6" ht="61.5">
-      <c r="A104" s="32"/>
+    <row r="104" spans="1:6" ht="68">
+      <c r="A104" s="23"/>
       <c r="B104" s="2" t="s">
         <v>239</v>
       </c>
@@ -3332,12 +3382,12 @@
       <c r="E104" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F104" s="43" t="s">
+      <c r="F104" s="20" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="33.950000000000003">
-      <c r="A105" s="32"/>
+    <row r="105" spans="1:6" ht="34">
+      <c r="A105" s="23"/>
       <c r="B105" s="2" t="s">
         <v>243</v>
       </c>
@@ -3353,7 +3403,7 @@
       <c r="F105" s="17"/>
     </row>
     <row r="106" spans="1:6" ht="51">
-      <c r="A106" s="32"/>
+      <c r="A106" s="23"/>
       <c r="B106" s="2" t="s">
         <v>246</v>
       </c>
@@ -3367,7 +3417,7 @@
       <c r="F106" s="17"/>
     </row>
     <row r="107" spans="1:6" ht="51">
-      <c r="A107" s="33"/>
+      <c r="A107" s="24"/>
       <c r="B107" s="2" t="s">
         <v>248</v>
       </c>
@@ -3382,8 +3432,8 @@
       </c>
       <c r="F107" s="17"/>
     </row>
-    <row r="108" spans="1:6" ht="33.950000000000003">
-      <c r="A108" s="34" t="s">
+    <row r="108" spans="1:6" ht="34">
+      <c r="A108" s="22" t="s">
         <v>251</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -3399,7 +3449,7 @@
       <c r="F108" s="17"/>
     </row>
     <row r="109" spans="1:6" ht="51">
-      <c r="A109" s="32"/>
+      <c r="A109" s="23"/>
       <c r="B109" s="2" t="s">
         <v>254</v>
       </c>
@@ -3413,7 +3463,7 @@
       <c r="F109" s="17"/>
     </row>
     <row r="110" spans="1:6" ht="51">
-      <c r="A110" s="32"/>
+      <c r="A110" s="23"/>
       <c r="B110" s="2" t="s">
         <v>256</v>
       </c>
@@ -3426,8 +3476,8 @@
       <c r="E110" s="11"/>
       <c r="F110" s="17"/>
     </row>
-    <row r="111" spans="1:6" ht="33.950000000000003">
-      <c r="A111" s="32"/>
+    <row r="111" spans="1:6" ht="34">
+      <c r="A111" s="23"/>
       <c r="B111" s="2" t="s">
         <v>258</v>
       </c>
@@ -3440,8 +3490,8 @@
       <c r="E111" s="11"/>
       <c r="F111" s="17"/>
     </row>
-    <row r="112" spans="1:6" ht="33.950000000000003">
-      <c r="A112" s="32"/>
+    <row r="112" spans="1:6" ht="34">
+      <c r="A112" s="23"/>
       <c r="B112" s="2" t="s">
         <v>260</v>
       </c>
@@ -3455,7 +3505,7 @@
       <c r="F112" s="17"/>
     </row>
     <row r="113" spans="1:6" ht="51">
-      <c r="A113" s="32"/>
+      <c r="A113" s="23"/>
       <c r="B113" s="2" t="s">
         <v>262</v>
       </c>
@@ -3468,8 +3518,8 @@
       <c r="E113" s="11"/>
       <c r="F113" s="17"/>
     </row>
-    <row r="114" spans="1:6" ht="33.950000000000003">
-      <c r="A114" s="32"/>
+    <row r="114" spans="1:6" ht="34">
+      <c r="A114" s="23"/>
       <c r="B114" s="2" t="s">
         <v>264</v>
       </c>
@@ -3482,8 +3532,8 @@
       <c r="E114" s="11"/>
       <c r="F114" s="17"/>
     </row>
-    <row r="115" spans="1:6" ht="33.950000000000003">
-      <c r="A115" s="32"/>
+    <row r="115" spans="1:6" ht="34">
+      <c r="A115" s="23"/>
       <c r="B115" s="2" t="s">
         <v>266</v>
       </c>
@@ -3497,7 +3547,7 @@
       <c r="F115" s="17"/>
     </row>
     <row r="116" spans="1:6" ht="51">
-      <c r="A116" s="32"/>
+      <c r="A116" s="23"/>
       <c r="B116" s="2" t="s">
         <v>268</v>
       </c>
@@ -3511,7 +3561,7 @@
       <c r="F116" s="17"/>
     </row>
     <row r="117" spans="1:6" ht="51">
-      <c r="A117" s="32"/>
+      <c r="A117" s="23"/>
       <c r="B117" s="2" t="s">
         <v>270</v>
       </c>
@@ -3525,7 +3575,7 @@
       <c r="F117" s="17"/>
     </row>
     <row r="118" spans="1:6" ht="51">
-      <c r="A118" s="32"/>
+      <c r="A118" s="23"/>
       <c r="B118" s="2" t="s">
         <v>272</v>
       </c>
@@ -3539,7 +3589,7 @@
       <c r="F118" s="17"/>
     </row>
     <row r="119" spans="1:6" ht="51">
-      <c r="A119" s="33"/>
+      <c r="A119" s="24"/>
       <c r="B119" s="2" t="s">
         <v>274</v>
       </c>
@@ -3553,58 +3603,71 @@
       <c r="F119" s="17"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="41" t="s">
+      <c r="A123" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="B123" s="41"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="41"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
       <c r="E123" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="104.1" customHeight="1">
-      <c r="A124" s="42" t="s">
+    <row r="124" spans="1:6" ht="104" customHeight="1">
+      <c r="A124" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="B124" s="42"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="42"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
       <c r="E124" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="294.95" customHeight="1">
-      <c r="A125" s="38" t="s">
+    <row r="125" spans="1:6" ht="295" customHeight="1">
+      <c r="A125" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="40"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="33"/>
       <c r="E125" s="12" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="120" customHeight="1">
-      <c r="A126" s="38" t="s">
+      <c r="A126" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="40"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="33"/>
       <c r="E126" s="12" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="35"/>
-      <c r="B127" s="36"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="37"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="30"/>
       <c r="E127" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A40"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A127:D127"/>
@@ -3621,21 +3684,8 @@
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A70:A83"/>
     <mergeCell ref="A84:A96"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D14:E69 D75:E79 D70:D74 D82:E119 D80:D81">
+  <conditionalFormatting sqref="D14:E69 D70:D74">
     <cfRule type="expression" dxfId="11" priority="9">
       <formula>$D14="Non testé"</formula>
     </cfRule>
@@ -3649,32 +3699,32 @@
       <formula>$D14="Non conforme"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D75:E119">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$D75="Non testé"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$D75="Dérogé"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$D75="Conforme"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$D75="Non conforme"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E70:E73">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$D70="Non testé"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$D70="Dérogé"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$D70="Conforme"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$D70="Non conforme"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:E81">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$D80="Non testé"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$D80="Dérogé"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$D80="Conforme"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$D80="Non conforme"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/.storybook/public/audits/DialogBox.xlsx
+++ b/.storybook/public/audits/DialogBox.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidfyon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidfyon/Desktop/cnam/design-system-v3/.storybook/public/audits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166EDD35-7435-854D-96B4-08B69D4D0E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE7166-0315-9045-B737-2BBCD7795371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4640" yWindow="760" windowWidth="44260" windowHeight="25980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -939,7 +939,7 @@
     <t>Correction post audit V1 - (voir - https://github.com/assurance-maladie-digital/design-system/issues/853)</t>
   </si>
   <si>
-    <t>0.0.16-alpha</t>
+    <t>1.0.6</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1306,14 +1306,35 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1323,6 +1344,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1348,37 +1381,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1847,7 +1850,7 @@
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1862,86 +1865,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="19">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="22" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="8">
         <v>45849</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="25">
         <v>45873</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="47" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="9">
         <f xml:space="preserve"> COUNTIF($D$14:$D$119,"Conforme")</f>
         <v>12</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="23">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="9">
         <f xml:space="preserve"> COUNTIF($D$14:$D$119,"Non conforme")</f>
         <v>9</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="9">
         <f xml:space="preserve"> COUNTIF($D$14:$D$119,"Non applicable")</f>
         <v>85</v>
@@ -1952,58 +1955,58 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="19">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="9">
         <f xml:space="preserve"> COUNTIF($D$14:$D$119,"Dérogé")</f>
         <v>0</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="9">
         <f xml:space="preserve"> COUNTIF($D$14:$D$119,"Non testé")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="14">
         <f>IF(SUM(D5:D6)&gt;0,D5/SUM(D5:D6),"")</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="14">
         <f>IF(SUM(D5:D6)&gt;0,1-ROUND(D10,2),"")</f>
         <v>0.43000000000000005</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2033,7 +2036,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="34">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2049,7 +2052,7 @@
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="68">
-      <c r="A15" s="23"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2067,7 +2070,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="34">
-      <c r="A16" s="23"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2081,7 +2084,7 @@
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="51">
-      <c r="A17" s="23"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2095,7 +2098,7 @@
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="34">
-      <c r="A18" s="23"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
@@ -2109,7 +2112,7 @@
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="34">
-      <c r="A19" s="23"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2123,7 +2126,7 @@
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="34">
-      <c r="A20" s="23"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2137,7 +2140,7 @@
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="51">
-      <c r="A21" s="23"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2151,7 +2154,7 @@
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="34">
-      <c r="A22" s="24"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
@@ -2165,7 +2168,7 @@
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="19">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2181,7 +2184,7 @@
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="34">
-      <c r="A24" s="24"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2195,7 +2198,7 @@
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="34">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="38" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2211,7 +2214,7 @@
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="187">
-      <c r="A26" s="23"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2226,8 +2229,8 @@
       </c>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:6" ht="221">
-      <c r="A27" s="24"/>
+    <row r="27" spans="1:6" ht="204">
+      <c r="A27" s="37"/>
       <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
@@ -2245,7 +2248,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="34">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2261,7 +2264,7 @@
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" ht="51">
-      <c r="A29" s="23"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2275,7 +2278,7 @@
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="34">
-      <c r="A30" s="23"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
@@ -2289,7 +2292,7 @@
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" ht="34">
-      <c r="A31" s="23"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
@@ -2303,7 +2306,7 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="34">
-      <c r="A32" s="23"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="2" t="s">
         <v>67</v>
       </c>
@@ -2317,7 +2320,7 @@
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" ht="34">
-      <c r="A33" s="23"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
@@ -2331,7 +2334,7 @@
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="34">
-      <c r="A34" s="23"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
@@ -2345,7 +2348,7 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="34">
-      <c r="A35" s="23"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="2" t="s">
         <v>73</v>
       </c>
@@ -2359,7 +2362,7 @@
       <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="34">
-      <c r="A36" s="23"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
@@ -2373,7 +2376,7 @@
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="34">
-      <c r="A37" s="23"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="2" t="s">
         <v>77</v>
       </c>
@@ -2387,7 +2390,7 @@
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" ht="34">
-      <c r="A38" s="23"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
@@ -2401,7 +2404,7 @@
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="34">
-      <c r="A39" s="23"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
@@ -2415,7 +2418,7 @@
       <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" ht="34">
-      <c r="A40" s="24"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
@@ -2429,7 +2432,7 @@
       <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="19">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="38" t="s">
         <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2445,7 +2448,7 @@
       <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" ht="34">
-      <c r="A42" s="23"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="2" t="s">
         <v>88</v>
       </c>
@@ -2459,7 +2462,7 @@
       <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" ht="34">
-      <c r="A43" s="23"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="2" t="s">
         <v>90</v>
       </c>
@@ -2473,7 +2476,7 @@
       <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" ht="34">
-      <c r="A44" s="23"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="2" t="s">
         <v>92</v>
       </c>
@@ -2487,7 +2490,7 @@
       <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" ht="34">
-      <c r="A45" s="23"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="2" t="s">
         <v>94</v>
       </c>
@@ -2501,7 +2504,7 @@
       <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" ht="34">
-      <c r="A46" s="23"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="2" t="s">
         <v>96</v>
       </c>
@@ -2515,7 +2518,7 @@
       <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" ht="51">
-      <c r="A47" s="23"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="2" t="s">
         <v>98</v>
       </c>
@@ -2529,7 +2532,7 @@
       <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" ht="34">
-      <c r="A48" s="24"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="2" t="s">
         <v>100</v>
       </c>
@@ -2543,7 +2546,7 @@
       <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6" ht="19">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="38" t="s">
         <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2559,7 +2562,7 @@
       <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" ht="19">
-      <c r="A50" s="24"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
@@ -2573,7 +2576,7 @@
       <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" ht="153">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="38" t="s">
         <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2593,7 +2596,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="34">
-      <c r="A52" s="23"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="2" t="s">
         <v>112</v>
       </c>
@@ -2607,7 +2610,7 @@
       <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6" ht="136">
-      <c r="A53" s="23"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="2" t="s">
         <v>114</v>
       </c>
@@ -2625,7 +2628,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="34">
-      <c r="A54" s="23"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="2" t="s">
         <v>117</v>
       </c>
@@ -2639,7 +2642,7 @@
       <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6" ht="34">
-      <c r="A55" s="24"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="2" t="s">
         <v>119</v>
       </c>
@@ -2653,7 +2656,7 @@
       <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6" ht="19">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="38" t="s">
         <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2669,7 +2672,7 @@
       <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" ht="51">
-      <c r="A57" s="23"/>
+      <c r="A57" s="36"/>
       <c r="B57" s="2" t="s">
         <v>124</v>
       </c>
@@ -2687,7 +2690,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="19">
-      <c r="A58" s="23"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="2" t="s">
         <v>128</v>
       </c>
@@ -2701,7 +2704,7 @@
       <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" ht="34">
-      <c r="A59" s="23"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="2" t="s">
         <v>130</v>
       </c>
@@ -2715,7 +2718,7 @@
       <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" ht="19">
-      <c r="A60" s="23"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="2" t="s">
         <v>132</v>
       </c>
@@ -2729,7 +2732,7 @@
       <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6" ht="19">
-      <c r="A61" s="23"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="2" t="s">
         <v>134</v>
       </c>
@@ -2743,7 +2746,7 @@
       <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6" ht="34">
-      <c r="A62" s="23"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="2" t="s">
         <v>136</v>
       </c>
@@ -2757,7 +2760,7 @@
       <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" ht="34">
-      <c r="A63" s="23"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="2" t="s">
         <v>138</v>
       </c>
@@ -2771,7 +2774,7 @@
       <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6" ht="34">
-      <c r="A64" s="23"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="2" t="s">
         <v>140</v>
       </c>
@@ -2785,7 +2788,7 @@
       <c r="F64" s="17"/>
     </row>
     <row r="65" spans="1:6" ht="34">
-      <c r="A65" s="24"/>
+      <c r="A65" s="37"/>
       <c r="B65" s="2" t="s">
         <v>142</v>
       </c>
@@ -2799,7 +2802,7 @@
       <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:6" ht="34">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="38" t="s">
         <v>144</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2819,7 +2822,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="34">
-      <c r="A67" s="23"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="2" t="s">
         <v>149</v>
       </c>
@@ -2833,7 +2836,7 @@
       <c r="F67" s="17"/>
     </row>
     <row r="68" spans="1:6" ht="19">
-      <c r="A68" s="23"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="2" t="s">
         <v>151</v>
       </c>
@@ -2847,7 +2850,7 @@
       <c r="F68" s="17"/>
     </row>
     <row r="69" spans="1:6" ht="34">
-      <c r="A69" s="24"/>
+      <c r="A69" s="37"/>
       <c r="B69" s="2" t="s">
         <v>153</v>
       </c>
@@ -2860,8 +2863,8 @@
       <c r="E69" s="11"/>
       <c r="F69" s="17"/>
     </row>
-    <row r="70" spans="1:6" ht="68">
-      <c r="A70" s="22" t="s">
+    <row r="70" spans="1:6" ht="34">
+      <c r="A70" s="38" t="s">
         <v>155</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2879,7 +2882,7 @@
       <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:6" ht="34">
-      <c r="A71" s="23"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="2" t="s">
         <v>159</v>
       </c>
@@ -2895,7 +2898,7 @@
       <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" ht="34">
-      <c r="A72" s="23"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="2" t="s">
         <v>162</v>
       </c>
@@ -2911,7 +2914,7 @@
       <c r="F72" s="17"/>
     </row>
     <row r="73" spans="1:6" ht="51">
-      <c r="A73" s="23"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="2" t="s">
         <v>165</v>
       </c>
@@ -2927,7 +2930,7 @@
       <c r="F73" s="17"/>
     </row>
     <row r="74" spans="1:6" ht="34">
-      <c r="A74" s="23"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="2" t="s">
         <v>168</v>
       </c>
@@ -2943,7 +2946,7 @@
       <c r="F74" s="17"/>
     </row>
     <row r="75" spans="1:6" ht="34">
-      <c r="A75" s="23"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="2" t="s">
         <v>171</v>
       </c>
@@ -2957,7 +2960,7 @@
       <c r="F75" s="17"/>
     </row>
     <row r="76" spans="1:6" ht="34">
-      <c r="A76" s="23"/>
+      <c r="A76" s="36"/>
       <c r="B76" s="2" t="s">
         <v>173</v>
       </c>
@@ -2975,7 +2978,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="34">
-      <c r="A77" s="23"/>
+      <c r="A77" s="36"/>
       <c r="B77" s="2" t="s">
         <v>177</v>
       </c>
@@ -2989,7 +2992,7 @@
       <c r="F77" s="17"/>
     </row>
     <row r="78" spans="1:6" ht="51">
-      <c r="A78" s="23"/>
+      <c r="A78" s="36"/>
       <c r="B78" s="2" t="s">
         <v>179</v>
       </c>
@@ -3005,7 +3008,7 @@
       <c r="F78" s="17"/>
     </row>
     <row r="79" spans="1:6" ht="51">
-      <c r="A79" s="23"/>
+      <c r="A79" s="36"/>
       <c r="B79" s="2" t="s">
         <v>182</v>
       </c>
@@ -3021,7 +3024,7 @@
       <c r="F79" s="17"/>
     </row>
     <row r="80" spans="1:6" ht="85">
-      <c r="A80" s="23"/>
+      <c r="A80" s="36"/>
       <c r="B80" s="2" t="s">
         <v>185</v>
       </c>
@@ -3036,8 +3039,8 @@
       </c>
       <c r="F80" s="17"/>
     </row>
-    <row r="81" spans="1:6" ht="170">
-      <c r="A81" s="23"/>
+    <row r="81" spans="1:6" ht="153">
+      <c r="A81" s="36"/>
       <c r="B81" s="2" t="s">
         <v>188</v>
       </c>
@@ -3054,8 +3057,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="68">
-      <c r="A82" s="23"/>
+    <row r="82" spans="1:6" ht="51">
+      <c r="A82" s="36"/>
       <c r="B82" s="2" t="s">
         <v>192</v>
       </c>
@@ -3071,7 +3074,7 @@
       <c r="F82" s="17"/>
     </row>
     <row r="83" spans="1:6" ht="51">
-      <c r="A83" s="24"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="2" t="s">
         <v>195</v>
       </c>
@@ -3085,7 +3088,7 @@
       <c r="F83" s="17"/>
     </row>
     <row r="84" spans="1:6" ht="19">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="38" t="s">
         <v>197</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3101,7 +3104,7 @@
       <c r="F84" s="17"/>
     </row>
     <row r="85" spans="1:6" ht="34">
-      <c r="A85" s="23"/>
+      <c r="A85" s="36"/>
       <c r="B85" s="2" t="s">
         <v>200</v>
       </c>
@@ -3115,7 +3118,7 @@
       <c r="F85" s="17"/>
     </row>
     <row r="86" spans="1:6" ht="51">
-      <c r="A86" s="23"/>
+      <c r="A86" s="36"/>
       <c r="B86" s="2" t="s">
         <v>202</v>
       </c>
@@ -3129,7 +3132,7 @@
       <c r="F86" s="17"/>
     </row>
     <row r="87" spans="1:6" ht="34">
-      <c r="A87" s="23"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="2" t="s">
         <v>204</v>
       </c>
@@ -3143,7 +3146,7 @@
       <c r="F87" s="17"/>
     </row>
     <row r="88" spans="1:6" ht="34">
-      <c r="A88" s="23"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="2" t="s">
         <v>206</v>
       </c>
@@ -3157,7 +3160,7 @@
       <c r="F88" s="17"/>
     </row>
     <row r="89" spans="1:6" ht="34">
-      <c r="A89" s="23"/>
+      <c r="A89" s="36"/>
       <c r="B89" s="2" t="s">
         <v>208</v>
       </c>
@@ -3171,7 +3174,7 @@
       <c r="F89" s="17"/>
     </row>
     <row r="90" spans="1:6" ht="34">
-      <c r="A90" s="23"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="2" t="s">
         <v>210</v>
       </c>
@@ -3185,7 +3188,7 @@
       <c r="F90" s="17"/>
     </row>
     <row r="91" spans="1:6" ht="34">
-      <c r="A91" s="23"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="2" t="s">
         <v>212</v>
       </c>
@@ -3199,7 +3202,7 @@
       <c r="F91" s="17"/>
     </row>
     <row r="92" spans="1:6" ht="34">
-      <c r="A92" s="23"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="2" t="s">
         <v>214</v>
       </c>
@@ -3213,7 +3216,7 @@
       <c r="F92" s="17"/>
     </row>
     <row r="93" spans="1:6" ht="34">
-      <c r="A93" s="23"/>
+      <c r="A93" s="36"/>
       <c r="B93" s="2" t="s">
         <v>216</v>
       </c>
@@ -3227,7 +3230,7 @@
       <c r="F93" s="17"/>
     </row>
     <row r="94" spans="1:6" ht="51">
-      <c r="A94" s="23"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="2" t="s">
         <v>218</v>
       </c>
@@ -3241,7 +3244,7 @@
       <c r="F94" s="17"/>
     </row>
     <row r="95" spans="1:6" ht="85">
-      <c r="A95" s="23"/>
+      <c r="A95" s="36"/>
       <c r="B95" s="2" t="s">
         <v>220</v>
       </c>
@@ -3255,7 +3258,7 @@
       <c r="F95" s="17"/>
     </row>
     <row r="96" spans="1:6" ht="51">
-      <c r="A96" s="24"/>
+      <c r="A96" s="37"/>
       <c r="B96" s="2" t="s">
         <v>222</v>
       </c>
@@ -3269,7 +3272,7 @@
       <c r="F96" s="17"/>
     </row>
     <row r="97" spans="1:6" ht="34">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="38" t="s">
         <v>224</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3285,7 +3288,7 @@
       <c r="F97" s="17"/>
     </row>
     <row r="98" spans="1:6" ht="34">
-      <c r="A98" s="23"/>
+      <c r="A98" s="36"/>
       <c r="B98" s="2" t="s">
         <v>227</v>
       </c>
@@ -3299,7 +3302,7 @@
       <c r="F98" s="17"/>
     </row>
     <row r="99" spans="1:6" ht="19">
-      <c r="A99" s="23"/>
+      <c r="A99" s="36"/>
       <c r="B99" s="2" t="s">
         <v>229</v>
       </c>
@@ -3313,7 +3316,7 @@
       <c r="F99" s="17"/>
     </row>
     <row r="100" spans="1:6" ht="34">
-      <c r="A100" s="23"/>
+      <c r="A100" s="36"/>
       <c r="B100" s="2" t="s">
         <v>231</v>
       </c>
@@ -3327,7 +3330,7 @@
       <c r="F100" s="17"/>
     </row>
     <row r="101" spans="1:6" ht="34">
-      <c r="A101" s="23"/>
+      <c r="A101" s="36"/>
       <c r="B101" s="2" t="s">
         <v>233</v>
       </c>
@@ -3341,7 +3344,7 @@
       <c r="F101" s="17"/>
     </row>
     <row r="102" spans="1:6" ht="68">
-      <c r="A102" s="23"/>
+      <c r="A102" s="36"/>
       <c r="B102" s="2" t="s">
         <v>235</v>
       </c>
@@ -3355,7 +3358,7 @@
       <c r="F102" s="17"/>
     </row>
     <row r="103" spans="1:6" ht="34">
-      <c r="A103" s="23"/>
+      <c r="A103" s="36"/>
       <c r="B103" s="2" t="s">
         <v>237</v>
       </c>
@@ -3368,8 +3371,8 @@
       <c r="E103" s="11"/>
       <c r="F103" s="17"/>
     </row>
-    <row r="104" spans="1:6" ht="68">
-      <c r="A104" s="23"/>
+    <row r="104" spans="1:6" ht="51">
+      <c r="A104" s="36"/>
       <c r="B104" s="2" t="s">
         <v>239</v>
       </c>
@@ -3387,7 +3390,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="34">
-      <c r="A105" s="23"/>
+      <c r="A105" s="36"/>
       <c r="B105" s="2" t="s">
         <v>243</v>
       </c>
@@ -3403,7 +3406,7 @@
       <c r="F105" s="17"/>
     </row>
     <row r="106" spans="1:6" ht="51">
-      <c r="A106" s="23"/>
+      <c r="A106" s="36"/>
       <c r="B106" s="2" t="s">
         <v>246</v>
       </c>
@@ -3417,7 +3420,7 @@
       <c r="F106" s="17"/>
     </row>
     <row r="107" spans="1:6" ht="51">
-      <c r="A107" s="24"/>
+      <c r="A107" s="37"/>
       <c r="B107" s="2" t="s">
         <v>248</v>
       </c>
@@ -3433,7 +3436,7 @@
       <c r="F107" s="17"/>
     </row>
     <row r="108" spans="1:6" ht="34">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="38" t="s">
         <v>251</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -3449,7 +3452,7 @@
       <c r="F108" s="17"/>
     </row>
     <row r="109" spans="1:6" ht="51">
-      <c r="A109" s="23"/>
+      <c r="A109" s="36"/>
       <c r="B109" s="2" t="s">
         <v>254</v>
       </c>
@@ -3463,7 +3466,7 @@
       <c r="F109" s="17"/>
     </row>
     <row r="110" spans="1:6" ht="51">
-      <c r="A110" s="23"/>
+      <c r="A110" s="36"/>
       <c r="B110" s="2" t="s">
         <v>256</v>
       </c>
@@ -3477,7 +3480,7 @@
       <c r="F110" s="17"/>
     </row>
     <row r="111" spans="1:6" ht="34">
-      <c r="A111" s="23"/>
+      <c r="A111" s="36"/>
       <c r="B111" s="2" t="s">
         <v>258</v>
       </c>
@@ -3491,7 +3494,7 @@
       <c r="F111" s="17"/>
     </row>
     <row r="112" spans="1:6" ht="34">
-      <c r="A112" s="23"/>
+      <c r="A112" s="36"/>
       <c r="B112" s="2" t="s">
         <v>260</v>
       </c>
@@ -3505,7 +3508,7 @@
       <c r="F112" s="17"/>
     </row>
     <row r="113" spans="1:6" ht="51">
-      <c r="A113" s="23"/>
+      <c r="A113" s="36"/>
       <c r="B113" s="2" t="s">
         <v>262</v>
       </c>
@@ -3519,7 +3522,7 @@
       <c r="F113" s="17"/>
     </row>
     <row r="114" spans="1:6" ht="34">
-      <c r="A114" s="23"/>
+      <c r="A114" s="36"/>
       <c r="B114" s="2" t="s">
         <v>264</v>
       </c>
@@ -3533,7 +3536,7 @@
       <c r="F114" s="17"/>
     </row>
     <row r="115" spans="1:6" ht="34">
-      <c r="A115" s="23"/>
+      <c r="A115" s="36"/>
       <c r="B115" s="2" t="s">
         <v>266</v>
       </c>
@@ -3547,7 +3550,7 @@
       <c r="F115" s="17"/>
     </row>
     <row r="116" spans="1:6" ht="51">
-      <c r="A116" s="23"/>
+      <c r="A116" s="36"/>
       <c r="B116" s="2" t="s">
         <v>268</v>
       </c>
@@ -3561,7 +3564,7 @@
       <c r="F116" s="17"/>
     </row>
     <row r="117" spans="1:6" ht="51">
-      <c r="A117" s="23"/>
+      <c r="A117" s="36"/>
       <c r="B117" s="2" t="s">
         <v>270</v>
       </c>
@@ -3575,7 +3578,7 @@
       <c r="F117" s="17"/>
     </row>
     <row r="118" spans="1:6" ht="51">
-      <c r="A118" s="23"/>
+      <c r="A118" s="36"/>
       <c r="B118" s="2" t="s">
         <v>272</v>
       </c>
@@ -3589,7 +3592,7 @@
       <c r="F118" s="17"/>
     </row>
     <row r="119" spans="1:6" ht="51">
-      <c r="A119" s="24"/>
+      <c r="A119" s="37"/>
       <c r="B119" s="2" t="s">
         <v>274</v>
       </c>
@@ -3603,71 +3606,58 @@
       <c r="F119" s="17"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="34" t="s">
+      <c r="A123" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="B123" s="34"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="45"/>
       <c r="E123" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="104" customHeight="1">
-      <c r="A124" s="35" t="s">
+      <c r="A124" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="B124" s="35"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="46"/>
+      <c r="D124" s="46"/>
       <c r="E124" s="12" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="295" customHeight="1">
-      <c r="A125" s="31" t="s">
+      <c r="A125" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="33"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="44"/>
       <c r="E125" s="12" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="120" customHeight="1">
-      <c r="A126" s="31" t="s">
+      <c r="A126" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="33"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="44"/>
       <c r="E126" s="12" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="28"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="30"/>
+      <c r="A127" s="39"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="41"/>
       <c r="E127" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A40"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A127:D127"/>
@@ -3684,6 +3674,19 @@
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A70:A83"/>
     <mergeCell ref="A84:A96"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D14:E69 D70:D74">
     <cfRule type="expression" dxfId="11" priority="9">
